--- a/biology/Médecine/Louis_Desbois_de_Rochefort/Louis_Desbois_de_Rochefort.xlsx
+++ b/biology/Médecine/Louis_Desbois_de_Rochefort/Louis_Desbois_de_Rochefort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis René Desbois de Rochefort (Paris, 9 octobre 1750-Paris, 26 janvier 1786), est un médecin français.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils de Louis-René Desbois, docteur en médecine de la Faculté de Paris et de Marie-Thérèse Syrand, il est également le frère de Éléonore-Marie Desbois de Rochefort. Il commence sa carrière à l'hôpital Sainte-Barbe puis en 1780 entre à l'hôpital de la Charité[1].
-Directeur de l'hôpital de la Charité, il en est le fondateur de l'enseignement clinique[2]. Son principal ouvrage est publié à titre posthume par son élève Jean-Nicolas Corvisart.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils de Louis-René Desbois, docteur en médecine de la Faculté de Paris et de Marie-Thérèse Syrand, il est également le frère de Éléonore-Marie Desbois de Rochefort. Il commence sa carrière à l'hôpital Sainte-Barbe puis en 1780 entre à l'hôpital de la Charité.
+Directeur de l'hôpital de la Charité, il en est le fondateur de l'enseignement clinique. Son principal ouvrage est publié à titre posthume par son élève Jean-Nicolas Corvisart.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cours élémentaire de matière médicale, 2 vol, posth., 1789, (nouvelle édition, 1817)
 Tome premier, Texte intégral.
